--- a/data/zombie9.xlsx
+++ b/data/zombie9.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,61 +461,56 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>934</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>961</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1181</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1247</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1291</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1305</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1316</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1345</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1354</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1444</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
         <v>882</v>
       </c>
     </row>
